--- a/doc/02_外部設計/02_DB定義書_A4.xlsx
+++ b/doc/02_外部設計/02_DB定義書_A4.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3824971B-434E-452C-908B-65A95934CC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D348119E-7664-4811-BACC-528284F67421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="user" sheetId="2" r:id="rId2"/>
-    <sheet name="category1" sheetId="5" r:id="rId3"/>
-    <sheet name="category2" sheetId="4" r:id="rId4"/>
-    <sheet name="review" sheetId="6" r:id="rId5"/>
-    <sheet name="review_regist" sheetId="7" r:id="rId6"/>
-    <sheet name="score" sheetId="8" r:id="rId7"/>
-    <sheet name="follow" sheetId="9" r:id="rId8"/>
-    <sheet name="list" sheetId="10" r:id="rId9"/>
+    <sheet name="users" sheetId="2" r:id="rId2"/>
+    <sheet name="categorys1" sheetId="5" r:id="rId3"/>
+    <sheet name="categorys2" sheetId="4" r:id="rId4"/>
+    <sheet name="reviews" sheetId="6" r:id="rId5"/>
+    <sheet name="reviews_item" sheetId="11" r:id="rId6"/>
+    <sheet name="reviews_regist" sheetId="7" r:id="rId7"/>
+    <sheet name="scores" sheetId="8" r:id="rId8"/>
+    <sheet name="follows" sheetId="9" r:id="rId9"/>
+    <sheet name="lists" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="143">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -393,34 +394,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>category1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>category2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>review</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>score</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>follow</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>list</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>category1_id</t>
   </si>
   <si>
@@ -563,10 +536,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>review_regist</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>レビュー登録</t>
     <rPh sb="4" eb="6">
       <t>トウロク</t>
@@ -645,6 +614,220 @@
   <si>
     <t>score_id</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー項目</t>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>users</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>categorys1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>categorys2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reviews</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reviews_item</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reviews_regist</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>scores</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>follows</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lists</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目１</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目２</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目３</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目４</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目５</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー項目ID</t>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>review_item_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>review_item1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>review_item2</t>
+  </si>
+  <si>
+    <t>review_item2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>review_item3</t>
+  </si>
+  <si>
+    <t>review_item3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>review_item4</t>
+  </si>
+  <si>
+    <t>review_item4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>review_item5</t>
+  </si>
+  <si>
+    <t>review_item5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー項目１</t>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー項目２</t>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー項目３</t>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー項目４</t>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー項目５</t>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日時</t>
+    <rPh sb="0" eb="4">
+      <t>コウシンニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー項目１スコア</t>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー項目２スコア</t>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー項目３スコア</t>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー項目４スコア</t>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー項目５スコア</t>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>review_item_score1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>review_item_score2</t>
+  </si>
+  <si>
+    <t>review_item_score3</t>
+  </si>
+  <si>
+    <t>review_item_score4</t>
+  </si>
+  <si>
+    <t>review_item_score5</t>
   </si>
 </sst>
 </file>
@@ -1070,10 +1253,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1109,7 +1292,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1152,13 +1335,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -1167,13 +1350,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -1182,13 +1365,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -1197,13 +1380,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -1212,13 +1395,13 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -1230,10 +1413,10 @@
         <v>90</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F13" s="3"/>
     </row>
@@ -1242,13 +1425,13 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -1257,13 +1440,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F15" s="3"/>
     </row>
@@ -1271,9 +1454,15 @@
       <c r="B16" s="3">
         <v>9</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -1473,6 +1662,15 @@
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="3">
+        <v>32</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1481,12 +1679,535 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A97AC67-8FD3-4744-99C6-9A731918E2FE}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="21.5546875" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table lists (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>list_id INTEGER ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>list_name VARCHAR ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>user_email VARCHAR ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>review_id INTEGER ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">delete_flg INTEGER </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1524,7 +2245,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1538,7 +2259,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -1550,7 +2271,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -1590,7 +2311,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table user (</v>
+        <v>create table users (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1598,10 +2319,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>58</v>
@@ -1609,7 +2330,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1620,17 +2341,17 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1646,25 +2367,27 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>user_password INTEGER ,</v>
+        <v>user_password INTEGER (100),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1672,25 +2395,27 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="E13" s="3">
+        <v>100</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>user_name VARCHAR ,</v>
+        <v>user_name VARCHAR (100),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1701,17 +2426,17 @@
         <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
@@ -1727,10 +2452,10 @@
         <v>27</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1740,7 +2465,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -2033,7 +2758,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2071,7 +2796,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2085,7 +2810,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -2097,7 +2822,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2137,7 +2862,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table category1 (</v>
+        <v>create table categorys1 (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2155,10 +2880,10 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -2181,17 +2906,19 @@
       <c r="D11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3">
+        <v>100</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">category1_name VARCHAR </v>
+        <v>category1_name VARCHAR (100)</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2534,7 +3261,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2572,7 +3299,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2586,7 +3313,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -2598,7 +3325,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2638,7 +3365,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table category2 (</v>
+        <v>create table categorys2 (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2656,10 +3383,10 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -2706,17 +3433,19 @@
       <c r="D12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">category2_name VARCHAR </v>
+        <v>category2_name VARCHAR (100)</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3040,8 +3769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9F0786-ED48-4704-8504-D1D60F4D850A}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3079,7 +3808,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -3093,7 +3822,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -3105,7 +3834,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3145,7 +3874,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table review (</v>
+        <v>create table reviews (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3163,10 +3892,10 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -3237,17 +3966,19 @@
       <c r="D13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3">
+        <v>100</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>review_name VARCHAR ,</v>
+        <v>review_name VARCHAR (100),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -3311,7 +4042,9 @@
       <c r="D16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3">
+        <v>100</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -3319,7 +4052,7 @@
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>comment VARCHAR ,</v>
+        <v>comment VARCHAR (100),</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -3343,7 +4076,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
@@ -3371,7 +4104,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
@@ -3383,10 +4116,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>57</v>
@@ -3396,10 +4129,10 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
@@ -3411,10 +4144,10 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>57</v>
@@ -3424,10 +4157,10 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" si="0"/>
@@ -3608,11 +4341,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A6A7A0-DC27-4AF8-948F-ABD614A8246D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA20D89-E789-49C1-ACE9-7706E3427EDA}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3650,7 +4383,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -3664,7 +4397,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -3676,7 +4409,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3716,7 +4449,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table review_regist (</v>
+        <v>create table reviews_item (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3724,10 +4457,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>58</v>
@@ -3735,7 +4468,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -3746,25 +4479,25 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>category1_id INTEGER ,</v>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>category2_id INTEGER ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -3772,23 +4505,25 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">category1_name VARCHAR </v>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>review_item1 VARCHAR (100),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3796,53 +4531,71 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>79</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E13" s="3">
+        <v>100</v>
+      </c>
+      <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>review_id INTEGER ,</v>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>review_item2 VARCHAR (100),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="3">
+        <v>100</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>review_item3 VARCHAR (100),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="3">
+        <v>100</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -3850,17 +4603,25 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>review_item4 VARCHAR (100),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="3">
+        <v>100</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -3868,43 +4629,63 @@
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>review_item5 VARCHAR (100),</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="I17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>created_at VARCHAR ,</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="I18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">updated_at VARCHAR </v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -4135,11 +4916,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4C4C6F-6D8F-4D76-BF64-62F0CB8070D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A6A7A0-DC27-4AF8-948F-ABD614A8246D}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4177,7 +4958,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -4203,7 +4984,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4243,7 +5024,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table score (</v>
+        <v>create table reviews_regist (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -4251,10 +5032,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>58</v>
@@ -4262,7 +5043,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -4273,17 +5054,17 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -4299,7 +5080,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>54</v>
@@ -4307,7 +5088,9 @@
       <c r="D12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -4315,7 +5098,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">category1_name VARCHAR </v>
+        <v>category1_name VARCHAR (100),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -4333,7 +5116,7 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -4348,10 +5131,18 @@
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="3">
+        <v>100</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -4359,17 +5150,25 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>review_item1 VARCHAR (100),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="3">
+        <v>100</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -4377,17 +5176,25 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>review_item2 VARCHAR (100),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="3">
+        <v>100</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -4395,17 +5202,25 @@
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>review_item3 VARCHAR (100),</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -4413,17 +5228,25 @@
       <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>review_item4 VARCHAR (100),</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="3">
+        <v>100</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -4431,7 +5254,7 @@
       <c r="J18" s="3"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>review_item5 VARCHAR (100)</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -4662,11 +5485,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1126EEF2-A1CB-42E3-AE52-5469369068D4}">
-  <dimension ref="A1:L30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4C4C6F-6D8F-4D76-BF64-62F0CB8070D0}">
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4704,7 +5527,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -4718,7 +5541,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -4730,7 +5553,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4770,7 +5593,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table follow (</v>
+        <v>create table scores (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -4778,10 +5601,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>58</v>
@@ -4789,40 +5612,36 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>follow_id INTEGER ,</v>
-      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_email VARCHAR ,</v>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>category1_id INTEGER ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -4830,23 +5649,25 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>user_name VARCHAR ,</v>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>category1_name VARCHAR (100),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -4854,25 +5675,25 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>user_img VARCHAR ,</v>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>review_id INTEGER ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -4880,10 +5701,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>58</v>
@@ -4892,24 +5713,26 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">delete_flg INTEGER </v>
+        <v>review_item_score1 INTEGER ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -4917,17 +5740,23 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>review_item_score2 INTEGER ,</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -4935,17 +5764,23 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v>review_item_score3 INTEGER ,</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -4954,16 +5789,22 @@
       <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>review_item_score4 INTEGER ,</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -4972,7 +5813,7 @@
       <c r="J18" s="3"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">review_item_score5 INTEGER </v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -5174,7 +6015,25 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
+      <c r="A30" s="3">
+        <v>21</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L31" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5185,11 +6044,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A97AC67-8FD3-4744-99C6-9A731918E2FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1126EEF2-A1CB-42E3-AE52-5469369068D4}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5227,7 +6086,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -5241,7 +6100,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -5253,7 +6112,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5293,7 +6152,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table list (</v>
+        <v>create table follows (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -5301,27 +6160,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>list_id INTEGER ,</v>
+        <v>follow_id INTEGER ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -5329,25 +6186,25 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>list_name VARCHAR ,</v>
+        <v>user_email VARCHAR ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -5355,15 +6212,17 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -5371,7 +6230,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>user_email VARCHAR ,</v>
+        <v>user_name VARCHAR (100),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -5379,23 +6238,25 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>review_id INTEGER ,</v>
+        <v>user_img VARCHAR ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -5419,7 +6280,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>

--- a/doc/02_外部設計/02_DB定義書_A4.xlsx
+++ b/doc/02_外部設計/02_DB定義書_A4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A4\doc\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D348119E-7664-4811-BACC-528284F67421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E1E966-9DF7-4875-AD11-3450BFFBE0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,10 @@
     <sheet name="categorys2" sheetId="4" r:id="rId4"/>
     <sheet name="reviews" sheetId="6" r:id="rId5"/>
     <sheet name="reviews_item" sheetId="11" r:id="rId6"/>
-    <sheet name="reviews_regist" sheetId="7" r:id="rId7"/>
-    <sheet name="scores" sheetId="8" r:id="rId8"/>
-    <sheet name="follows" sheetId="9" r:id="rId9"/>
-    <sheet name="lists" sheetId="10" r:id="rId10"/>
+    <sheet name="scores" sheetId="8" r:id="rId7"/>
+    <sheet name="follows" sheetId="9" r:id="rId8"/>
+    <sheet name="list1" sheetId="10" r:id="rId9"/>
+    <sheet name="list2" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="141">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -199,14 +199,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メールアドレス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザーネーム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アイコン画像</t>
     <rPh sb="4" eb="6">
       <t>ガゾウ</t>
@@ -214,13 +206,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>アイコン画像</t>
-    <rPh sb="4" eb="6">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>公開・非公開フラグ</t>
     <rPh sb="0" eb="2">
       <t>コウカイ</t>
@@ -311,29 +296,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リストID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リスト名</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user_email</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user_img</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>category1_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -375,14 +337,6 @@
   </si>
   <si>
     <t>category1_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>list_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>list_name</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -536,13 +490,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レビュー登録</t>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>後で画像を入れる</t>
     <rPh sb="0" eb="1">
       <t>アト</t>
@@ -576,35 +523,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>後で画像入れる</t>
-    <rPh sb="0" eb="1">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アドレス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザーID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レビュー登録ID</t>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>review_regist_id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -643,19 +562,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>reviews_regist</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>scores</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>follows</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>lists</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -710,65 +621,18 @@
   </si>
   <si>
     <t>review_item2</t>
-  </si>
-  <si>
-    <t>review_item2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>review_item3</t>
-  </si>
-  <si>
-    <t>review_item3</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>review_item4</t>
-  </si>
-  <si>
-    <t>review_item4</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>review_item5</t>
-  </si>
-  <si>
-    <t>review_item5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レビュー項目１</t>
-    <rPh sb="4" eb="6">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レビュー項目２</t>
-    <rPh sb="4" eb="6">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レビュー項目３</t>
-    <rPh sb="4" eb="6">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レビュー項目４</t>
-    <rPh sb="4" eb="6">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レビュー項目５</t>
-    <rPh sb="4" eb="6">
-      <t>コウモク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -814,20 +678,247 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>review_item_score1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>review_item_score2</t>
-  </si>
-  <si>
-    <t>review_item_score3</t>
-  </si>
-  <si>
-    <t>review_item_score4</t>
-  </si>
-  <si>
-    <t>review_item_score5</t>
+    <t>list1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list2_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list2_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list3_name</t>
+  </si>
+  <si>
+    <t>list1_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list1_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>review_item1_score</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>review_item2_score</t>
+  </si>
+  <si>
+    <t>review_item3_score</t>
+  </si>
+  <si>
+    <t>review_item4_score</t>
+  </si>
+  <si>
+    <t>review_item5_score</t>
+  </si>
+  <si>
+    <t>大リスト</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小リスト</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名</t>
+    <rPh sb="0" eb="3">
+      <t>コウモクメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>review_item_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小リスト名</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小リストID</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大リストID</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大リスト名</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーを管理</t>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー内容（レビュー名やレビュー画像など）を管理</t>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー登録時の評価項目を管理（最大５つ）</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サイダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー登録時に入力された際の評価点数を管理</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォローしたユーザーを管理</t>
+    <rPh sb="11" eb="13">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小リスト（大リストに含まれるリスト）を管理</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大リスト（小リストを含んでいる）を管理</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビューの小カテゴリー（大カテゴリーに含まれているカテゴリー）を管理</t>
+    <rPh sb="5" eb="6">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビューの大カテゴリー（小カテゴリーを含んでいるカテゴリー）を管理</t>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1253,10 +1344,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1265,7 +1356,7 @@
     <col min="3" max="3" width="25.44140625" customWidth="1"/>
     <col min="4" max="4" width="17.88671875" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="58.6640625" customWidth="1"/>
+    <col min="6" max="6" width="60.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.2" x14ac:dyDescent="0.2">
@@ -1292,7 +1383,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1305,13 +1396,17 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45456</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -1335,139 +1430,157 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1476,7 +1589,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1485,7 +1598,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1494,7 +1607,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1503,7 +1616,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1512,7 +1625,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1521,7 +1634,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1530,7 +1643,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1539,7 +1652,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1548,7 +1661,7 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1557,7 +1670,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1566,7 +1679,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1575,7 +1688,7 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1584,7 +1697,7 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1593,7 +1706,7 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1602,7 +1715,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1611,7 +1724,7 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1620,7 +1733,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1629,7 +1742,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1638,7 +1751,7 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1647,7 +1760,7 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1656,21 +1769,12 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="3">
-        <v>32</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1680,11 +1784,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A97AC67-8FD3-4744-99C6-9A731918E2FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF29C76-6BB3-4D90-A736-9145D8676BFF}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1722,7 +1826,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1736,7 +1840,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -1748,7 +1852,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -1788,7 +1892,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table lists (</v>
+        <v>create table list2 (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1796,27 +1900,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>list_id INTEGER ,</v>
+        <v>list2_id INTEGER ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1824,25 +1928,25 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>list_name VARCHAR ,</v>
+      <c r="L11" t="e">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1850,13 +1954,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1864,23 +1968,19 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>user_email VARCHAR ,</v>
-      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1895,16 +1995,16 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1914,7 +2014,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -1923,7 +2023,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1941,7 +2041,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1959,7 +2059,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1977,7 +2077,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1995,7 +2095,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2013,7 +2113,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2031,7 +2131,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2049,7 +2149,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2067,7 +2167,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2085,7 +2185,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2103,7 +2203,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2121,7 +2221,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2139,7 +2239,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2157,7 +2257,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2175,7 +2275,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2206,8 +2306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2245,7 +2345,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2259,7 +2359,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -2271,7 +2371,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2319,18 +2419,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="G10" s="6" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -2341,18 +2443,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -2367,13 +2467,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -2381,7 +2481,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -2395,13 +2495,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E13" s="3">
         <v>100</v>
@@ -2409,7 +2509,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -2423,20 +2523,20 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
@@ -2449,13 +2549,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2465,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -2796,7 +2896,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2810,7 +2910,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -2822,7 +2922,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2870,20 +2970,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -2898,13 +2998,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E11" s="3">
         <v>100</v>
@@ -2912,7 +3012,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -3299,7 +3399,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -3313,7 +3413,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -3325,7 +3425,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3373,20 +3473,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -3401,13 +3501,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3425,13 +3525,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -3439,7 +3539,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -3767,10 +3867,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9F0786-ED48-4704-8504-D1D60F4D850A}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3808,7 +3908,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -3822,7 +3922,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -3834,7 +3934,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3882,27 +3982,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>review_id INTEGER ,</v>
+      <c r="L10" t="e">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3910,13 +4010,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3926,7 +4026,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>category1_id INTEGER ,</v>
+        <v>category2_id INTEGER ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -3937,20 +4037,24 @@
         <v>31</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>category2_id INTEGER ,</v>
+        <v>review_name VARCHAR (100),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3958,27 +4062,23 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="3">
-        <v>100</v>
-      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>review_name VARCHAR (100),</v>
+        <v>review_price INTEGER ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -3986,13 +4086,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -4001,8 +4101,8 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>review_price INTEGER ,</v>
+        <f t="shared" ref="L14:L28" si="0">C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>review_img VARCHAR ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -4010,23 +4110,25 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E15" s="3">
+        <v>100</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>review_img VARCHAR ,</v>
+        <f t="shared" si="0"/>
+        <v>comment VARCHAR (100),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -4034,25 +4136,27 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="3">
-        <v>100</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>comment VARCHAR (100),</v>
+        <v>privacy_flg INTEGER ,</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -4060,13 +4164,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -4076,11 +4180,11 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>privacy_flg INTEGER ,</v>
+        <v>delete_flg INTEGER ,</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -4088,27 +4192,27 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="3">
-        <v>1</v>
+      <c r="I18" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v>delete_flg INTEGER ,</v>
+        <v>created_at VARCHAR ,</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -4116,55 +4220,45 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
-        <v>created_at VARCHAR ,</v>
+        <v xml:space="preserve">updated_at VARCHAR </v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
       <c r="L20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">updated_at VARCHAR </v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -4312,25 +4406,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
+      <c r="L29" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4342,10 +4418,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA20D89-E789-49C1-ACE9-7706E3427EDA}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4383,7 +4459,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -4397,7 +4473,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -4409,7 +4485,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4457,18 +4533,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="G10" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -4479,24 +4557,22 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>category2_id INTEGER ,</v>
       </c>
     </row>
@@ -4505,39 +4581,35 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="3">
-        <v>100</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>review_item1 VARCHAR (100),</v>
-      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E13" s="3">
         <v>100</v>
@@ -4549,7 +4621,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>review_item2 VARCHAR (100),</v>
+        <v>review_item1 VARCHAR (100),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -4557,27 +4629,25 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E14" s="3">
         <v>100</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>review_item3 VARCHAR (100),</v>
+        <v>review_item2 VARCHAR (100),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -4585,13 +4655,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -4603,7 +4673,7 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>review_item4 VARCHAR (100),</v>
+        <v>review_item3 VARCHAR (100),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -4611,13 +4681,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E16" s="3">
         <v>100</v>
@@ -4628,8 +4698,8 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>review_item5 VARCHAR (100),</v>
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v>review_item4 VARCHAR (100),</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -4637,27 +4707,25 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v>created_at VARCHAR ,</v>
+        <f t="shared" ref="L17:L31" si="0">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v>review_item5 VARCHAR (100),</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -4665,45 +4733,55 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">updated_at VARCHAR </v>
+        <v>created_at VARCHAR ,</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="I19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">updated_at VARCHAR </v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -4905,7 +4983,25 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L31" t="s">
+      <c r="A31" s="3">
+        <v>22</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="L31" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L32" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4916,11 +5012,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A6A7A0-DC27-4AF8-948F-ABD614A8246D}">
-  <dimension ref="A1:L31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4C4C6F-6D8F-4D76-BF64-62F0CB8070D0}">
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4958,7 +5054,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -4972,7 +5068,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -4984,7 +5080,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5024,7 +5120,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table reviews_regist (</v>
+        <v>create table scores (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -5032,18 +5128,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="G10" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -5054,25 +5152,23 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>category1_id INTEGER ,</v>
+      <c r="L11" t="e">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -5080,13 +5176,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -5097,7 +5193,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>category1_name VARCHAR (100),</v>
       </c>
     </row>
@@ -5106,25 +5202,23 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>review_id INTEGER ,</v>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>review_item1_score INTEGER ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -5132,17 +5226,15 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="3">
-        <v>100</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -5150,7 +5242,7 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>review_item1 VARCHAR (100),</v>
+        <v>review_item2_score INTEGER ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -5158,25 +5250,23 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="3">
-        <v>100</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>review_item2 VARCHAR (100),</v>
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>review_item3_score INTEGER ,</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -5184,25 +5274,23 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="3">
-        <v>100</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>review_item3 VARCHAR (100),</v>
+        <f t="shared" si="0"/>
+        <v>review_item4_score INTEGER ,</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -5210,17 +5298,15 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="3">
-        <v>100</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -5228,25 +5314,17 @@
       <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>review_item4 VARCHAR (100),</v>
+        <v xml:space="preserve">review_item5_score INTEGER </v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="3">
-        <v>100</v>
-      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -5254,7 +5332,7 @@
       <c r="J18" s="3"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v>review_item5 VARCHAR (100)</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -5456,25 +5534,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>21</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="L30" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L31" t="s">
+      <c r="L30" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5485,11 +5545,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4C4C6F-6D8F-4D76-BF64-62F0CB8070D0}">
-  <dimension ref="A1:L31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1126EEF2-A1CB-42E3-AE52-5469369068D4}">
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5527,7 +5587,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -5541,7 +5601,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -5553,7 +5613,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5593,7 +5653,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table scores (</v>
+        <v>create table follows (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -5601,114 +5661,96 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="G10" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>follow_id INTEGER ,</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>category1_id INTEGER ,</v>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">user_id VARCHAR </v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="3">
-        <v>100</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>category1_name VARCHAR (100),</v>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>review_id INTEGER ,</v>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -5717,22 +5759,16 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>review_item_score1 INTEGER ,</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -5740,23 +5776,17 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>review_item_score2 INTEGER ,</v>
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -5764,23 +5794,17 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>review_item_score3 INTEGER ,</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -5789,22 +5813,16 @@
       <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>review_item_score4 INTEGER ,</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -5813,7 +5831,7 @@
       <c r="J18" s="3"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">review_item_score5 INTEGER </v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -6015,25 +6033,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>21</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="L30" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L31" t="s">
+      <c r="L30" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6044,11 +6044,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1126EEF2-A1CB-42E3-AE52-5469369068D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A97AC67-8FD3-4744-99C6-9A731918E2FE}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6086,7 +6086,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -6100,7 +6100,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -6112,7 +6112,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6152,7 +6152,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table follows (</v>
+        <v>create table list1 (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -6160,25 +6160,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="G10" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>follow_id INTEGER ,</v>
+        <v>list1_id INTEGER ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -6186,25 +6188,27 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>72</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E11" s="3">
+        <v>100</v>
+      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_email VARCHAR ,</v>
+        <v>list1_name VARCHAR (100),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -6212,17 +6216,15 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="3">
-        <v>100</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -6230,7 +6232,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>user_name VARCHAR (100),</v>
+        <v>user_id INTEGER ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -6238,25 +6240,23 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>user_img VARCHAR ,</v>
+        <v>review_id INTEGER ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -6264,13 +6264,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -6280,7 +6280,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>

--- a/doc/02_外部設計/02_DB定義書_A4.xlsx
+++ b/doc/02_外部設計/02_DB定義書_A4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A4\doc\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E1E966-9DF7-4875-AD11-3450BFFBE0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DD55AC-7817-4E87-93D2-5870F23C5124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,13 @@
     <sheet name="categorys1" sheetId="5" r:id="rId3"/>
     <sheet name="categorys2" sheetId="4" r:id="rId4"/>
     <sheet name="reviews" sheetId="6" r:id="rId5"/>
-    <sheet name="reviews_item" sheetId="11" r:id="rId6"/>
-    <sheet name="scores" sheetId="8" r:id="rId7"/>
-    <sheet name="follows" sheetId="9" r:id="rId8"/>
-    <sheet name="list1" sheetId="10" r:id="rId9"/>
-    <sheet name="list2" sheetId="12" r:id="rId10"/>
+    <sheet name="reviews_imgs" sheetId="14" r:id="rId6"/>
+    <sheet name="reviews_item" sheetId="11" r:id="rId7"/>
+    <sheet name="reviews_scores" sheetId="8" r:id="rId8"/>
+    <sheet name="backnumbers" sheetId="13" r:id="rId9"/>
+    <sheet name="follows" sheetId="9" r:id="rId10"/>
+    <sheet name="list" sheetId="10" r:id="rId11"/>
+    <sheet name="list_reviews" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="153">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -324,10 +326,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>comment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>privacy_flg</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -346,9 +344,6 @@
   <si>
     <t>INTEGER</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>category1_id</t>
   </si>
   <si>
     <t>user_email</t>
@@ -531,10 +526,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>score_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>レビュー項目</t>
     <rPh sb="4" eb="6">
       <t>コウモク</t>
@@ -562,10 +553,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>scores</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>follows</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -616,26 +603,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>review_item1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>review_item2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>review_item3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>review_item4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>review_item5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>更新日時</t>
     <rPh sb="0" eb="4">
       <t>コウシンニチジ</t>
@@ -678,63 +645,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>list1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>list2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>list2_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>list2_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>list3_name</t>
-  </si>
-  <si>
-    <t>list1_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>list1_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>review_item1_score</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>review_item2_score</t>
-  </si>
-  <si>
-    <t>review_item3_score</t>
-  </si>
-  <si>
-    <t>review_item4_score</t>
-  </si>
-  <si>
-    <t>review_item5_score</t>
-  </si>
-  <si>
-    <t>大リスト</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小リスト</t>
-    <rPh sb="0" eb="1">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
       <t>コウモクメイ</t>
@@ -746,40 +656,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>小リスト名</t>
-    <rPh sb="0" eb="1">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小リストID</t>
-    <rPh sb="0" eb="1">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大リストID</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大リスト名</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザーを管理</t>
     <rPh sb="5" eb="7">
       <t>カンリ</t>
@@ -857,38 +733,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>小リスト（大リストに含まれるリスト）を管理</t>
-    <rPh sb="0" eb="1">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大リスト（小リストを含んでいる）を管理</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>レビューの小カテゴリー（大カテゴリーに含まれているカテゴリー）を管理</t>
     <rPh sb="5" eb="6">
       <t>ショウ</t>
@@ -916,6 +760,195 @@
       <t>フク</t>
     </rPh>
     <rPh sb="31" eb="33">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list_review_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リストレビューID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リストID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リスト名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコア合計</t>
+    <rPh sb="3" eb="5">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>score_sum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リストレビュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リストを管理</t>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リストに追加されているレビューを管理</t>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reviews_items</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list_reviews</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>backnumbers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バックナンバーID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>backnumber_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バックナンバーコンテンツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>backnumber_content</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>review_comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>reviews_imgs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー画像ID</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>review_img_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー画像を管理</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reviews_scores</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>review_score_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item1_score</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item2_score</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item3_score</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item4_score</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item5_score</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バックナンバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>backnumber</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バックナンバーを管理</t>
+    <rPh sb="8" eb="10">
       <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1344,10 +1377,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1383,7 +1416,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1430,16 +1463,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1447,16 +1480,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1464,16 +1497,16 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1481,16 +1514,16 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1498,107 +1531,123 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
-        <v>11</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
-        <v>12</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1607,7 +1656,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1616,7 +1665,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1625,7 +1674,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1634,7 +1683,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1643,7 +1692,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1652,7 +1701,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1661,7 +1710,7 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1670,7 +1719,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1679,7 +1728,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1688,7 +1737,7 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1697,7 +1746,7 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1706,7 +1755,7 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1715,7 +1764,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1724,7 +1773,7 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1733,7 +1782,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1742,7 +1791,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1751,7 +1800,7 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1760,7 +1809,7 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1769,12 +1818,30 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="3">
+        <v>32</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="3">
+        <v>33</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1784,11 +1851,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF29C76-6BB3-4D90-A736-9145D8676BFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1126EEF2-A1CB-42E3-AE52-5469369068D4}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1826,7 +1893,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1840,24 +1907,28 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45456</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -1892,7 +1963,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table list2 (</v>
+        <v>create table follows (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1900,27 +1971,27 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>list2_id INTEGER ,</v>
+        <v>follow_id INTEGER ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1928,10 +1999,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>47</v>
@@ -1939,14 +2010,12 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="L11" t="e">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>user_id INTEGER ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1954,76 +2023,78 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>created_at VARCHAR ,</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>review_id INTEGER ,</v>
+        <v xml:space="preserve">updated_at VARCHAR </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>6</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">delete_flg INTEGER </v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2041,7 +2112,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2059,7 +2130,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2077,7 +2148,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2095,7 +2166,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2113,7 +2184,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2131,7 +2202,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2149,7 +2220,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2167,7 +2238,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2185,7 +2256,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2203,7 +2274,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2221,7 +2292,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2239,7 +2310,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2257,7 +2328,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2275,7 +2346,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2302,12 +2373,1008 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A97AC67-8FD3-4744-99C6-9A731918E2FE}">
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="21.5546875" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table list (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>list_id INTEGER ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="3">
+        <v>100</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="e">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>delete_flg INTEGER ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" ref="L13:L27" si="0">C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>created_at VARCHAR ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">updated_at VARCHAR </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>9</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>10</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>11</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>12</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>13</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>14</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>15</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>16</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>17</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>18</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>19</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>20</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF29C76-6BB3-4D90-A736-9145D8676BFF}">
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="21.5546875" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table list_reviews (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>list_review_id INTEGER ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="e">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="e">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" ref="L13:L27" si="0">C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>created_at VARCHAR ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">updated_at VARCHAR </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2345,7 +3412,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2359,24 +3426,28 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45456</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -2419,20 +3490,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -2443,13 +3514,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2467,13 +3538,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -2481,7 +3552,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -2495,13 +3566,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E13" s="3">
         <v>100</v>
@@ -2509,7 +3580,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -2526,17 +3597,17 @@
         <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
@@ -2552,10 +3623,10 @@
         <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2565,47 +3636,67 @@
         <v>1</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">privcy_flg INTEGER </v>
+        <v>privcy_flg INTEGER ,</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="I16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="L16" t="str">
         <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>created_at VARCHAR ,</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="I17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">updated_at VARCHAR </v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -2858,7 +3949,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2896,7 +3987,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2910,24 +4001,28 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45456</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -2976,14 +4071,14 @@
         <v>36</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -3001,10 +4096,10 @@
         <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="E11" s="3">
         <v>100</v>
@@ -3012,49 +4107,69 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>category1_name VARCHAR (100)</v>
+        <v>category1_name VARCHAR (100),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>created_at VARCHAR ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">updated_at VARCHAR </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -3361,7 +4476,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3399,7 +4514,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -3413,24 +4528,28 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45456</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -3479,14 +4598,14 @@
         <v>37</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -3507,7 +4626,7 @@
         <v>36</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3531,7 +4650,7 @@
         <v>38</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -3539,49 +4658,69 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>category2_name VARCHAR (100)</v>
+        <v>category2_name VARCHAR (100),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>created_at VARCHAR ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">updated_at VARCHAR </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -3870,7 +5009,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3908,7 +5047,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -3922,24 +5061,28 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45456</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -3988,14 +5131,14 @@
         <v>39</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -4016,7 +5159,7 @@
         <v>37</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -4040,7 +5183,7 @@
         <v>40</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -4048,7 +5191,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -4068,7 +5211,7 @@
         <v>41</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -4076,73 +5219,69 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>review_price INTEGER ,</v>
+      <c r="L13" t="e">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="E14" s="3">
+        <v>100</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f t="shared" ref="L14:L28" si="0">C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>review_img VARCHAR ,</v>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>review_comment VARCHAR (100),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="3">
-        <v>100</v>
-      </c>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" si="0"/>
-        <v>comment VARCHAR (100),</v>
-      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -4152,25 +5291,25 @@
         <v>1</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L16:L28" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v>privacy_flg INTEGER ,</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -4180,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
@@ -4189,26 +5328,26 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
@@ -4217,26 +5356,26 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
@@ -4245,7 +5384,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4263,7 +5402,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4281,7 +5420,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4299,7 +5438,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4317,7 +5456,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4335,7 +5474,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4353,7 +5492,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4371,7 +5510,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4389,7 +5528,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4417,11 +5556,566 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2335EC9-2616-449C-95CC-CD728D804EDE}">
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="21.5546875" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table reviews_imgs (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="e">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>backnumber_id INTEGER ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>delete_flg INTEGER ,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15" t="str">
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>created_at VARCHAR ,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">updated_at VARCHAR </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>21</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA20D89-E789-49C1-ACE9-7706E3427EDA}">
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4459,7 +6153,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -4473,24 +6167,28 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45456</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -4533,20 +6231,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -4563,7 +6261,7 @@
         <v>37</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -4581,19 +6279,19 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -4603,13 +6301,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="3">
         <v>100</v>
@@ -4621,7 +6319,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>review_item1 VARCHAR (100),</v>
+        <v>item1 VARCHAR (100),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -4629,13 +6327,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="3">
         <v>100</v>
@@ -4647,7 +6345,7 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>review_item2 VARCHAR (100),</v>
+        <v>item2 VARCHAR (100),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -4655,13 +6353,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -4673,7 +6371,7 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>review_item3 VARCHAR (100),</v>
+        <v>item3 VARCHAR (100),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -4681,13 +6379,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="3">
         <v>100</v>
@@ -4699,7 +6397,7 @@
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>review_item4 VARCHAR (100),</v>
+        <v>item4 VARCHAR (100),</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -4707,13 +6405,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -4725,7 +6423,7 @@
       <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" ref="L17:L31" si="0">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
-        <v>review_item5 VARCHAR (100),</v>
+        <v>item5 VARCHAR (100),</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -4733,23 +6431,23 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
@@ -4761,23 +6459,23 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
@@ -5011,12 +6709,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4C4C6F-6D8F-4D76-BF64-62F0CB8070D0}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5054,7 +6752,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -5068,24 +6766,28 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45456</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -5120,7 +6822,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table scores (</v>
+        <v>create table reviews_scores (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -5128,20 +6830,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -5155,10 +6857,10 @@
         <v>30</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -5176,10 +6878,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>47</v>
@@ -5194,7 +6896,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>category1_name VARCHAR (100),</v>
+        <v>review_item_id INTEGER (100),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -5202,13 +6904,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -5218,7 +6920,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>review_item1_score INTEGER ,</v>
+        <v>item1_score INTEGER ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -5226,13 +6928,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -5242,7 +6944,7 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>review_item2_score INTEGER ,</v>
+        <v>item2_score INTEGER ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -5250,13 +6952,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -5266,7 +6968,7 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>review_item3_score INTEGER ,</v>
+        <v>item3_score INTEGER ,</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -5274,13 +6976,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -5290,7 +6992,7 @@
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>review_item4_score INTEGER ,</v>
+        <v>item4_score INTEGER ,</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -5298,13 +7000,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -5314,16 +7016,22 @@
       <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">review_item5_score INTEGER </v>
+        <v>item5_score INTEGER ,</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -5332,43 +7040,63 @@
       <c r="J18" s="3"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>score_sum INTEGER ,</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="I19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>created_at VARCHAR ,</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="I20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="L20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">updated_at VARCHAR </v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -5544,17 +7272,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1126EEF2-A1CB-42E3-AE52-5469369068D4}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D68177-1031-40FF-A7B3-BC7A8A99B6CA}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" customWidth="1"/>
     <col min="4" max="4" width="16.21875" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
@@ -5587,7 +7315,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -5601,24 +7329,28 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45456</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -5653,7 +7385,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table follows (</v>
+        <v>create table backnumbers (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -5661,38 +7393,34 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>follow_id INTEGER ,</v>
-      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>47</v>
@@ -5703,19 +7431,27 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">user_id VARCHAR </v>
+      <c r="L11" t="e">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -5723,61 +7459,91 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>backnumber_content VARCHAR (100),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>delete_flg INTEGER ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>created_at VARCHAR ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="I15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">updated_at VARCHAR </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -6041,529 +7807,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A97AC67-8FD3-4744-99C6-9A731918E2FE}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="21.21875" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="21.5546875" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45454</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table list1 (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>list1_id INTEGER ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="3">
-        <v>100</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>list1_name VARCHAR (100),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>user_id INTEGER ,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>review_id INTEGER ,</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">delete_flg INTEGER </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/doc/02_外部設計/02_DB定義書_A4.xlsx
+++ b/doc/02_外部設計/02_DB定義書_A4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A4\doc\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DD55AC-7817-4E87-93D2-5870F23C5124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83390250-6C61-4FBE-9ADC-0FE5049833B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="154">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -951,6 +951,10 @@
     <rPh sb="8" eb="10">
       <t>カンリ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュースコア</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1380,7 +1384,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1565,7 +1569,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>138</v>
@@ -2878,7 +2882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF29C76-6BB3-4D90-A736-9145D8676BFF}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
@@ -5559,7 +5563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2335EC9-2616-449C-95CC-CD728D804EDE}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
@@ -7277,7 +7281,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -7454,7 +7458,9 @@
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">

--- a/doc/02_外部設計/02_DB定義書_A4.xlsx
+++ b/doc/02_外部設計/02_DB定義書_A4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A4\doc\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83390250-6C61-4FBE-9ADC-0FE5049833B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47BE2DE-7C26-4DAE-9FB1-32403D8FB1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="categorys2" sheetId="4" r:id="rId4"/>
     <sheet name="reviews" sheetId="6" r:id="rId5"/>
     <sheet name="reviews_imgs" sheetId="14" r:id="rId6"/>
-    <sheet name="reviews_item" sheetId="11" r:id="rId7"/>
+    <sheet name="reviews_items" sheetId="11" r:id="rId7"/>
     <sheet name="reviews_scores" sheetId="8" r:id="rId8"/>
     <sheet name="backnumbers" sheetId="13" r:id="rId9"/>
     <sheet name="follows" sheetId="9" r:id="rId10"/>
@@ -557,41 +557,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>項目１</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目２</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目３</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目４</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目５</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>レビュー項目ID</t>
     <rPh sb="4" eb="6">
       <t>コウモク</t>
@@ -645,13 +610,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>項目名</t>
-    <rPh sb="0" eb="3">
-      <t>コウモクメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>review_item_name</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -899,46 +857,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>item1_score</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>item2_score</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>item3_score</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>item4_score</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>item5_score</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>item1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>item2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>item3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>item4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>item5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>バックナンバー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -955,6 +873,80 @@
   </si>
   <si>
     <t>レビュースコア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー項目１</t>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー項目２</t>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー項目３</t>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー項目４</t>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー項目５</t>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>review_item1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>review_item2</t>
+  </si>
+  <si>
+    <t>review_item3</t>
+  </si>
+  <si>
+    <t>review_item4</t>
+  </si>
+  <si>
+    <t>review_item5</t>
+  </si>
+  <si>
+    <t>review_item1_score</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>review_item2_score</t>
+  </si>
+  <si>
+    <t>review_item3_score</t>
+  </si>
+  <si>
+    <t>review_item4_score</t>
+  </si>
+  <si>
+    <t>review_item5_score</t>
+  </si>
+  <si>
+    <t>レビュー項目名</t>
+    <rPh sb="4" eb="7">
+      <t>コウモクメイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1476,7 +1468,7 @@
         <v>77</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1493,7 +1485,7 @@
         <v>77</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1510,7 +1502,7 @@
         <v>77</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1527,7 +1519,7 @@
         <v>77</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1538,13 +1530,13 @@
         <v>33</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>77</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1555,13 +1547,13 @@
         <v>83</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>77</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1569,16 +1561,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>77</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1586,16 +1578,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>77</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1612,7 +1604,7 @@
         <v>77</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -1623,13 +1615,13 @@
         <v>75</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>77</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
@@ -1637,16 +1629,16 @@
         <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>77</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
@@ -1858,7 +1850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1126EEF2-A1CB-42E3-AE52-5469369068D4}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
@@ -2030,7 +2022,7 @@
         <v>64</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>56</v>
@@ -2058,7 +2050,7 @@
         <v>65</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>56</v>
@@ -2448,7 +2440,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2498,10 +2490,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>47</v>
@@ -2526,10 +2518,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>46</v>
@@ -2585,7 +2577,7 @@
         <v>64</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>56</v>
@@ -2613,7 +2605,7 @@
         <v>65</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>56</v>
@@ -2883,7 +2875,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2949,7 +2941,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2999,10 +2991,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>47</v>
@@ -3027,10 +3019,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>47</v>
@@ -3080,7 +3072,7 @@
         <v>64</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>56</v>
@@ -3108,7 +3100,7 @@
         <v>65</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>56</v>
@@ -3377,7 +3369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -3655,7 +3647,7 @@
         <v>64</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>56</v>
@@ -3683,7 +3675,7 @@
         <v>65</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>56</v>
@@ -4128,7 +4120,7 @@
         <v>64</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>56</v>
@@ -4156,7 +4148,7 @@
         <v>65</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>56</v>
@@ -4679,7 +4671,7 @@
         <v>64</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>56</v>
@@ -4707,7 +4699,7 @@
         <v>65</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>56</v>
@@ -5236,7 +5228,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>46</v>
@@ -5563,8 +5555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2335EC9-2616-449C-95CC-CD728D804EDE}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5630,7 +5622,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5680,10 +5672,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>47</v>
@@ -5728,10 +5720,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>47</v>
@@ -5803,7 +5795,7 @@
         <v>64</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>56</v>
@@ -5831,7 +5823,7 @@
         <v>65</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>56</v>
@@ -6119,7 +6111,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6235,10 +6227,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>47</v>
@@ -6283,10 +6275,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>46</v>
@@ -6305,10 +6297,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>46</v>
@@ -6323,7 +6315,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>item1 VARCHAR (100),</v>
+        <v>review_item1 VARCHAR (100),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -6331,10 +6323,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>46</v>
@@ -6349,7 +6341,7 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>item2 VARCHAR (100),</v>
+        <v>review_item2 VARCHAR (100),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -6357,10 +6349,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>46</v>
@@ -6375,7 +6367,7 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>item3 VARCHAR (100),</v>
+        <v>review_item3 VARCHAR (100),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -6383,10 +6375,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>46</v>
@@ -6401,7 +6393,7 @@
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>item4 VARCHAR (100),</v>
+        <v>review_item4 VARCHAR (100),</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -6409,10 +6401,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>46</v>
@@ -6427,7 +6419,7 @@
       <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" ref="L17:L31" si="0">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
-        <v>item5 VARCHAR (100),</v>
+        <v>review_item5 VARCHAR (100),</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -6463,7 +6455,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>67</v>
@@ -6718,7 +6710,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6784,7 +6776,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6837,7 +6829,7 @@
         <v>82</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>47</v>
@@ -6882,10 +6874,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>47</v>
@@ -6908,10 +6900,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>47</v>
@@ -6924,7 +6916,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>item1_score INTEGER ,</v>
+        <v>review_item1_score INTEGER ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -6932,10 +6924,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>47</v>
@@ -6948,7 +6940,7 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>item2_score INTEGER ,</v>
+        <v>review_item2_score INTEGER ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -6956,10 +6948,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>47</v>
@@ -6972,7 +6964,7 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>item3_score INTEGER ,</v>
+        <v>review_item3_score INTEGER ,</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -6980,10 +6972,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>47</v>
@@ -6996,7 +6988,7 @@
       <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>item4_score INTEGER ,</v>
+        <v>review_item4_score INTEGER ,</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -7004,10 +6996,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>47</v>
@@ -7020,7 +7012,7 @@
       <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>item5_score INTEGER ,</v>
+        <v>review_item5_score INTEGER ,</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -7028,10 +7020,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>47</v>
@@ -7055,7 +7047,7 @@
         <v>64</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>56</v>
@@ -7083,7 +7075,7 @@
         <v>65</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>56</v>
@@ -7347,7 +7339,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -7397,10 +7389,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>47</v>
@@ -7445,10 +7437,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>46</v>
@@ -7504,7 +7496,7 @@
         <v>64</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>56</v>
@@ -7532,7 +7524,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>56</v>

--- a/doc/02_外部設計/02_DB定義書_A4.xlsx
+++ b/doc/02_外部設計/02_DB定義書_A4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A4\doc\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47BE2DE-7C26-4DAE-9FB1-32403D8FB1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83FE3FF-730A-4D54-8530-38950EBF410D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -754,17 +754,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スコア合計</t>
-    <rPh sb="3" eb="5">
-      <t>ゴウケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>score_sum</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リストレビュー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -946,6 +935,17 @@
     <t>レビュー項目名</t>
     <rPh sb="4" eb="7">
       <t>コウモクメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>score_avg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコア平均</t>
+    <rPh sb="3" eb="5">
+      <t>ヘイキン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1530,13 +1530,13 @@
         <v>33</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>77</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1547,7 +1547,7 @@
         <v>83</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>77</v>
@@ -1561,10 +1561,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>77</v>
@@ -1578,16 +1578,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>77</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1621,7 +1621,7 @@
         <v>77</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
@@ -1629,16 +1629,16 @@
         <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>77</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
@@ -1850,7 +1850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1126EEF2-A1CB-42E3-AE52-5469369068D4}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
@@ -2022,7 +2022,7 @@
         <v>64</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>56</v>
@@ -2050,7 +2050,7 @@
         <v>65</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>56</v>
@@ -2577,7 +2577,7 @@
         <v>64</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>56</v>
@@ -2605,7 +2605,7 @@
         <v>65</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>56</v>
@@ -2941,7 +2941,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3072,7 +3072,7 @@
         <v>64</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>56</v>
@@ -3100,7 +3100,7 @@
         <v>65</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>56</v>
@@ -3647,7 +3647,7 @@
         <v>64</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>56</v>
@@ -3675,7 +3675,7 @@
         <v>65</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>56</v>
@@ -4120,7 +4120,7 @@
         <v>64</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>56</v>
@@ -4148,7 +4148,7 @@
         <v>65</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>56</v>
@@ -4671,7 +4671,7 @@
         <v>64</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>56</v>
@@ -4699,7 +4699,7 @@
         <v>65</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>56</v>
@@ -5228,7 +5228,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>46</v>
@@ -5622,7 +5622,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5672,10 +5672,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>47</v>
@@ -5720,10 +5720,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>47</v>
@@ -5795,7 +5795,7 @@
         <v>64</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>56</v>
@@ -5823,7 +5823,7 @@
         <v>65</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>56</v>
@@ -6275,7 +6275,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>98</v>
@@ -6297,10 +6297,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>46</v>
@@ -6323,10 +6323,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>46</v>
@@ -6349,10 +6349,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>46</v>
@@ -6375,10 +6375,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>46</v>
@@ -6401,10 +6401,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>46</v>
@@ -6709,8 +6709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4C4C6F-6D8F-4D76-BF64-62F0CB8070D0}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6776,7 +6776,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6829,7 +6829,7 @@
         <v>82</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>47</v>
@@ -6903,7 +6903,7 @@
         <v>93</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>47</v>
@@ -6927,7 +6927,7 @@
         <v>94</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>47</v>
@@ -6951,7 +6951,7 @@
         <v>95</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>47</v>
@@ -6975,7 +6975,7 @@
         <v>96</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>47</v>
@@ -6999,7 +6999,7 @@
         <v>97</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>47</v>
@@ -7020,10 +7020,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>47</v>
@@ -7036,7 +7036,7 @@
       <c r="J18" s="3"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v>score_sum INTEGER ,</v>
+        <v>score_avg INTEGER ,</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -7047,7 +7047,7 @@
         <v>64</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>56</v>
@@ -7075,7 +7075,7 @@
         <v>65</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>56</v>
@@ -7339,7 +7339,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -7389,10 +7389,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>47</v>
@@ -7437,10 +7437,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>46</v>
@@ -7496,7 +7496,7 @@
         <v>64</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>56</v>
@@ -7524,7 +7524,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>56</v>

--- a/doc/02_外部設計/02_DB定義書_A4.xlsx
+++ b/doc/02_外部設計/02_DB定義書_A4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A4\doc\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83FE3FF-730A-4D54-8530-38950EBF410D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0913D61B-E85F-4819-9AE6-292CF6F97744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="158">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -287,10 +287,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コメント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>削除フラグ</t>
     <rPh sb="0" eb="2">
       <t>サクジョ</t>
@@ -947,6 +943,26 @@
     <rPh sb="3" eb="5">
       <t>ヘイキン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー1ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー2ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user1_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user2_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビューコメント</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1412,7 +1428,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1459,16 +1475,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1476,16 +1492,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1493,16 +1509,16 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1510,16 +1526,16 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1530,13 +1546,13 @@
         <v>33</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1544,16 +1560,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1561,16 +1577,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1578,16 +1594,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1595,16 +1611,16 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -1612,16 +1628,16 @@
         <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
@@ -1629,16 +1645,16 @@
         <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
@@ -1848,10 +1864,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1126EEF2-A1CB-42E3-AE52-5469369068D4}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1889,7 +1905,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -1903,7 +1919,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -1917,7 +1933,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -1967,20 +1983,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1995,13 +2011,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2010,8 +2026,8 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_id INTEGER ,</v>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>user1_id INTEGER ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2019,73 +2035,75 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>created_at VARCHAR ,</v>
-      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">updated_at VARCHAR </v>
+        <v>created_at VARCHAR ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">updated_at VARCHAR </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2102,7 +2120,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2120,7 +2138,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2359,7 +2377,25 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
+      <c r="A30" s="3">
+        <v>21</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L31" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2412,7 +2448,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2426,7 +2462,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -2440,7 +2476,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2490,20 +2526,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -2518,13 +2554,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" s="3">
         <v>100</v>
@@ -2532,7 +2568,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2546,13 +2582,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2562,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -2574,23 +2610,23 @@
         <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" ref="L13:L27" si="0">C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -2602,23 +2638,23 @@
         <v>7</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
@@ -2913,7 +2949,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -2927,7 +2963,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -2941,7 +2977,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2991,20 +3027,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -3019,19 +3055,19 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -3048,10 +3084,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3069,23 +3105,23 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" ref="L13:L27" si="0">C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -3097,23 +3133,23 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
@@ -3408,7 +3444,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -3422,7 +3458,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -3436,7 +3472,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3486,20 +3522,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -3510,13 +3546,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3534,13 +3570,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -3548,7 +3584,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -3562,13 +3598,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="E13" s="3">
         <v>100</v>
@@ -3576,7 +3612,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -3593,17 +3629,17 @@
         <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
@@ -3619,10 +3655,10 @@
         <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -3632,7 +3668,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -3644,23 +3680,23 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
@@ -3672,23 +3708,23 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
@@ -3983,7 +4019,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -3997,7 +4033,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -4011,7 +4047,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4064,17 +4100,17 @@
         <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -4092,10 +4128,10 @@
         <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="E11" s="3">
         <v>100</v>
@@ -4103,7 +4139,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -4117,23 +4153,23 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -4145,23 +4181,23 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -4510,7 +4546,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -4524,7 +4560,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -4538,7 +4574,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4591,17 +4627,17 @@
         <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -4619,10 +4655,10 @@
         <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -4643,10 +4679,10 @@
         <v>29</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -4654,7 +4690,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -4668,23 +4704,23 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -4696,23 +4732,23 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -5004,8 +5040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9F0786-ED48-4704-8504-D1D60F4D850A}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5043,7 +5079,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -5057,7 +5093,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -5071,7 +5107,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5124,17 +5160,17 @@
         <v>30</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -5152,10 +5188,10 @@
         <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -5176,10 +5212,10 @@
         <v>31</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -5187,7 +5223,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -5204,10 +5240,10 @@
         <v>32</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -5225,13 +5261,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>157</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" s="3">
         <v>100</v>
@@ -5251,13 +5287,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -5274,10 +5310,10 @@
         <v>25</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -5287,7 +5323,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" ref="L16:L28" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
@@ -5299,13 +5335,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -5315,7 +5351,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
@@ -5327,23 +5363,23 @@
         <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
@@ -5355,23 +5391,23 @@
         <v>11</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
@@ -5594,7 +5630,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -5608,7 +5644,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -5622,7 +5658,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5672,20 +5708,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -5699,10 +5735,10 @@
         <v>30</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -5720,13 +5756,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -5747,10 +5783,10 @@
         <v>33</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -5764,13 +5800,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -5780,7 +5816,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -5792,23 +5828,23 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
@@ -5820,23 +5856,23 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
@@ -6149,7 +6185,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -6163,7 +6199,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -6177,7 +6213,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6227,20 +6263,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -6254,10 +6290,10 @@
         <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -6275,19 +6311,19 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -6297,13 +6333,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" s="3">
         <v>100</v>
@@ -6323,13 +6359,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" s="3">
         <v>100</v>
@@ -6349,13 +6385,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -6375,13 +6411,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" s="3">
         <v>100</v>
@@ -6401,13 +6437,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -6427,23 +6463,23 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
@@ -6455,23 +6491,23 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
@@ -6709,7 +6745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4C4C6F-6D8F-4D76-BF64-62F0CB8070D0}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -6748,7 +6784,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -6762,7 +6798,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -6776,7 +6812,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6826,20 +6862,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -6853,10 +6889,10 @@
         <v>30</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -6874,13 +6910,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -6900,13 +6936,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -6924,13 +6960,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -6948,13 +6984,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -6972,13 +7008,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -6996,13 +7032,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -7020,13 +7056,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -7044,23 +7080,23 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
@@ -7072,23 +7108,23 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" si="0"/>
@@ -7311,7 +7347,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -7325,7 +7361,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -7339,7 +7375,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -7389,20 +7425,20 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -7416,10 +7452,10 @@
         <v>30</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -7437,13 +7473,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -7451,7 +7487,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -7465,13 +7501,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -7481,7 +7517,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -7493,23 +7529,23 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -7521,23 +7557,23 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>

--- a/doc/02_外部設計/02_DB定義書_A4.xlsx
+++ b/doc/02_外部設計/02_DB定義書_A4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A4\doc\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0913D61B-E85F-4819-9AE6-292CF6F97744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC7E30E-E922-4E37-98FB-E49D8ABF637B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="158">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -5040,7 +5040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9F0786-ED48-4704-8504-D1D60F4D850A}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -5589,10 +5589,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2335EC9-2616-449C-95CC-CD728D804EDE}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5753,16 +5753,16 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -5770,68 +5770,72 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>backnumber_id INTEGER ,</v>
-      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>delete_flg INTEGER ,</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3">
-        <v>1</v>
+      <c r="I14" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>delete_flg INTEGER ,</v>
+        <v>created_at VARCHAR ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>55</v>
@@ -5844,44 +5848,34 @@
         <v>67</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L15" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>created_at VARCHAR ,</v>
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">updated_at VARCHAR </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">updated_at VARCHAR </v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -5899,7 +5893,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -5917,7 +5911,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -5935,7 +5929,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5953,7 +5947,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5971,7 +5965,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5989,7 +5983,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6007,7 +6001,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6025,7 +6019,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6043,7 +6037,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6061,7 +6055,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6079,7 +6073,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -6097,7 +6091,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6114,25 +6108,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>21</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="L30" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L31" t="s">
+      <c r="L30" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6146,8 +6122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA20D89-E789-49C1-ACE9-7706E3427EDA}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6219,7 +6195,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="5">
-        <v>45456</v>
+        <v>45459</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">

--- a/doc/02_外部設計/02_DB定義書_A4.xlsx
+++ b/doc/02_外部設計/02_DB定義書_A4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A4\doc\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC7E30E-E922-4E37-98FB-E49D8ABF637B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CB3D5B-564F-4037-98FD-DFBBA616B15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="155">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -518,10 +518,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スコアID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>レビュー項目</t>
     <rPh sb="4" eb="6">
       <t>コウモク</t>
@@ -606,10 +602,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>review_item_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザーを管理</t>
     <rPh sb="5" eb="7">
       <t>カンリ</t>
@@ -846,10 +838,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>backnumber</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>バックナンバーを管理</t>
     <rPh sb="8" eb="10">
       <t>カンリ</t>
@@ -928,13 +916,6 @@
     <t>review_item5_score</t>
   </si>
   <si>
-    <t>レビュー項目名</t>
-    <rPh sb="4" eb="7">
-      <t>コウモクメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>score_avg</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -963,6 +944,10 @@
   </si>
   <si>
     <t>レビューコメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュースコアID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1392,7 +1377,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1478,13 +1463,13 @@
         <v>57</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>76</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1495,13 +1480,13 @@
         <v>61</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>76</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1512,13 +1497,13 @@
         <v>60</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>76</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1529,13 +1514,13 @@
         <v>62</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>76</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1546,13 +1531,13 @@
         <v>33</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>76</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1560,16 +1545,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>76</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1577,16 +1562,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>76</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1594,16 +1579,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>76</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1614,13 +1599,13 @@
         <v>71</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>76</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -1631,13 +1616,13 @@
         <v>74</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>76</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
@@ -1645,16 +1630,16 @@
         <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>76</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
@@ -1933,7 +1918,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2011,10 +1996,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>46</v>
@@ -2035,10 +2020,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>46</v>
@@ -2058,7 +2043,7 @@
         <v>63</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>55</v>
@@ -2086,7 +2071,7 @@
         <v>64</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>55</v>
@@ -2476,7 +2461,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -2526,10 +2511,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>46</v>
@@ -2554,10 +2539,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>45</v>
@@ -2613,7 +2598,7 @@
         <v>63</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>55</v>
@@ -2641,7 +2626,7 @@
         <v>64</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>55</v>
@@ -2910,8 +2895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF29C76-6BB3-4D90-A736-9145D8676BFF}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2977,7 +2962,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3027,10 +3012,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>46</v>
@@ -3055,10 +3040,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>46</v>
@@ -3108,7 +3093,7 @@
         <v>63</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>55</v>
@@ -3136,7 +3121,7 @@
         <v>64</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>55</v>
@@ -3472,7 +3457,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -3683,7 +3668,7 @@
         <v>63</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>55</v>
@@ -3711,7 +3696,7 @@
         <v>64</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>55</v>
@@ -4047,7 +4032,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4156,7 +4141,7 @@
         <v>63</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>55</v>
@@ -4184,7 +4169,7 @@
         <v>64</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>55</v>
@@ -4574,7 +4559,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -4707,7 +4692,7 @@
         <v>63</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>55</v>
@@ -4735,7 +4720,7 @@
         <v>64</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>55</v>
@@ -5107,7 +5092,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5261,10 +5246,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>45</v>
@@ -5658,7 +5643,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -5708,10 +5693,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>46</v>
@@ -5807,7 +5792,7 @@
         <v>63</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>55</v>
@@ -5835,7 +5820,7 @@
         <v>64</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>55</v>
@@ -6120,10 +6105,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA20D89-E789-49C1-ACE9-7706E3427EDA}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6175,7 +6160,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -6189,7 +6174,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6239,10 +6224,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>46</v>
@@ -6278,7 +6263,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>category2_id INTEGER ,</v>
       </c>
     </row>
@@ -6287,32 +6272,36 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>review_item1 VARCHAR (100),</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>45</v>
@@ -6327,7 +6316,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>review_item1 VARCHAR (100),</v>
+        <v>review_item2 VARCHAR (100),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -6335,10 +6324,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>45</v>
@@ -6353,7 +6342,7 @@
       <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>review_item2 VARCHAR (100),</v>
+        <v>review_item3 VARCHAR (100),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -6361,10 +6350,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>45</v>
@@ -6379,7 +6368,7 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>review_item3 VARCHAR (100),</v>
+        <v>review_item4 VARCHAR (100),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -6387,10 +6376,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>45</v>
@@ -6404,8 +6393,8 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>review_item4 VARCHAR (100),</v>
+        <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v>review_item5 VARCHAR (100),</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -6413,25 +6402,27 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="3">
-        <v>100</v>
-      </c>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="I17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="L17" t="str">
-        <f t="shared" ref="L17:L31" si="0">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
-        <v>review_item5 VARCHAR (100),</v>
+        <f t="shared" si="0"/>
+        <v>created_at VARCHAR ,</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -6439,10 +6430,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>45</v>
@@ -6455,39 +6446,29 @@
         <v>67</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v>created_at VARCHAR ,</v>
+        <v xml:space="preserve">updated_at VARCHAR </v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">updated_at VARCHAR </v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -6689,25 +6670,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>22</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="L31" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L32" t="s">
+      <c r="L31" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6722,7 +6685,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6788,7 +6751,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -6838,10 +6801,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>46</v>
@@ -6886,17 +6849,15 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="3">
-        <v>100</v>
-      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -6904,7 +6865,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>review_item_id INTEGER (100),</v>
+        <v>review_item_id INTEGER ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -6912,10 +6873,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>46</v>
@@ -6936,10 +6897,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>46</v>
@@ -6960,10 +6921,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>46</v>
@@ -6984,10 +6945,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>46</v>
@@ -7008,10 +6969,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>46</v>
@@ -7032,10 +6993,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>46</v>
@@ -7059,7 +7020,7 @@
         <v>63</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>55</v>
@@ -7087,7 +7048,7 @@
         <v>64</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>55</v>
@@ -7351,7 +7312,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
@@ -7401,10 +7362,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>46</v>
@@ -7449,10 +7410,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>45</v>
@@ -7508,7 +7469,7 @@
         <v>63</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>55</v>
@@ -7536,7 +7497,7 @@
         <v>64</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>55</v>

--- a/doc/02_外部設計/02_DB定義書_A4.xlsx
+++ b/doc/02_外部設計/02_DB定義書_A4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A4\doc\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CB3D5B-564F-4037-98FD-DFBBA616B15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145F186F-D37C-4DF0-B2FF-B6DCB8FEB9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="157">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -948,6 +948,14 @@
   </si>
   <si>
     <t>レビュースコアID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wwww</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CURRENT_TIMESTAMP</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1851,7 +1859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1126EEF2-A1CB-42E3-AE52-5469369068D4}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="E6" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -2394,7 +2402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A97AC67-8FD3-4744-99C6-9A731918E2FE}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
@@ -2895,8 +2903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF29C76-6BB3-4D90-A736-9145D8676BFF}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2971,6 +2979,11 @@
         <v>45456</v>
       </c>
     </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>155</v>
+      </c>
+    </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
@@ -3051,9 +3064,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="e">
@@ -3390,8 +3401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3403,7 +3414,7 @@
     <col min="6" max="6" width="20.33203125" customWidth="1"/>
     <col min="7" max="7" width="7.21875" customWidth="1"/>
     <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" customWidth="1"/>
+    <col min="9" max="9" width="22.21875" customWidth="1"/>
     <col min="10" max="10" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3678,7 +3689,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>68</v>
@@ -3706,7 +3717,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>69</v>
@@ -3965,7 +3976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC239E6-3731-4EAD-8D36-DBF41465DF41}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
@@ -4492,7 +4503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DF9C2C-B88D-4FCA-9ADF-34D6A5CA0077}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
@@ -5025,8 +5036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9F0786-ED48-4704-8504-D1D60F4D850A}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5361,7 +5372,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>68</v>
@@ -5576,7 +5587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2335EC9-2616-449C-95CC-CD728D804EDE}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="D6" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -6107,7 +6118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA20D89-E789-49C1-ACE9-7706E3427EDA}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="D6" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -6684,7 +6695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4C4C6F-6D8F-4D76-BF64-62F0CB8070D0}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -7245,7 +7256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D68177-1031-40FF-A7B3-BC7A8A99B6CA}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>

--- a/doc/02_外部設計/02_DB定義書_A4.xlsx
+++ b/doc/02_外部設計/02_DB定義書_A4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A4\doc\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145F186F-D37C-4DF0-B2FF-B6DCB8FEB9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE19E7E2-CB86-4718-8CB2-DAF45283A66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="158">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -891,9 +891,6 @@
     <t>review_item2</t>
   </si>
   <si>
-    <t>review_item3</t>
-  </si>
-  <si>
     <t>review_item4</t>
   </si>
   <si>
@@ -902,9 +899,6 @@
   <si>
     <t>review_item1_score</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>review_item2_score</t>
   </si>
   <si>
     <t>review_item3_score</t>
@@ -956,6 +950,18 @@
   </si>
   <si>
     <t>CURRENT_TIMESTAMP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>review_item3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー画像</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>review_item2_score</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2004,10 +2010,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>46</v>
@@ -2028,10 +2034,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>46</v>
@@ -2903,7 +2909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF29C76-6BB3-4D90-A736-9145D8676BFF}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
@@ -2981,7 +2987,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -3401,7 +3407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="E3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -3689,7 +3695,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>68</v>
@@ -3717,7 +3723,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>69</v>
@@ -3976,8 +3982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC239E6-3731-4EAD-8D36-DBF41465DF41}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5036,8 +5042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9F0786-ED48-4704-8504-D1D60F4D850A}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5257,7 +5263,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>120</v>
@@ -5372,7 +5378,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>68</v>
@@ -5587,8 +5593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2335EC9-2616-449C-95CC-CD728D804EDE}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="D6" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5640,7 +5646,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -5831,7 +5837,7 @@
         <v>64</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>55</v>
@@ -6118,8 +6124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA20D89-E789-49C1-ACE9-7706E3427EDA}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="D6" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6338,7 +6344,7 @@
         <v>134</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>45</v>
@@ -6364,7 +6370,7 @@
         <v>135</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>45</v>
@@ -6390,7 +6396,7 @@
         <v>136</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>45</v>
@@ -6695,8 +6701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4C4C6F-6D8F-4D76-BF64-62F0CB8070D0}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6812,7 +6818,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>128</v>
@@ -6887,7 +6893,7 @@
         <v>91</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>46</v>
@@ -6911,7 +6917,7 @@
         <v>92</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>46</v>
@@ -6935,7 +6941,7 @@
         <v>93</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>46</v>
@@ -6959,7 +6965,7 @@
         <v>94</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>46</v>
@@ -6983,7 +6989,7 @@
         <v>95</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>46</v>
@@ -7004,10 +7010,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>46</v>
@@ -7256,8 +7262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D68177-1031-40FF-A7B3-BC7A8A99B6CA}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -7309,7 +7315,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>

--- a/doc/02_外部設計/02_DB定義書_A4.xlsx
+++ b/doc/02_外部設計/02_DB定義書_A4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A4\doc\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE19E7E2-CB86-4718-8CB2-DAF45283A66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979B5429-0A85-4112-9EF8-00BE9F41BD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="158">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -2408,7 +2408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A97AC67-8FD3-4744-99C6-9A731918E2FE}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
@@ -5042,7 +5042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9F0786-ED48-4704-8504-D1D60F4D850A}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -6701,7 +6701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4C4C6F-6D8F-4D76-BF64-62F0CB8070D0}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -7260,10 +7260,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D68177-1031-40FF-A7B3-BC7A8A99B6CA}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -7445,9 +7445,9 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>backnumber_content VARCHAR (100),</v>
+      <c r="L12" t="e">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -7455,27 +7455,27 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3">
-        <v>1</v>
+      <c r="I13" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>delete_flg INTEGER ,</v>
+        <v>created_at VARCHAR ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -7483,10 +7483,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>55</v>
@@ -7499,39 +7499,29 @@
         <v>67</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>created_at VARCHAR ,</v>
+        <f t="shared" ref="L14:L28" si="0">C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">updated_at VARCHAR </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">updated_at VARCHAR </v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -7769,25 +7759,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
+      <c r="L29" t="s">
         <v>19</v>
       </c>
     </row>

--- a/doc/02_外部設計/02_DB定義書_A4.xlsx
+++ b/doc/02_外部設計/02_DB定義書_A4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A4\doc\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979B5429-0A85-4112-9EF8-00BE9F41BD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A54D52-B94A-4EEE-B2B0-88E32C14D20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="16596" windowHeight="12336" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="159">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -962,6 +962,10 @@
   </si>
   <si>
     <t>review_item2_score</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1865,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1126EEF2-A1CB-42E3-AE52-5469369068D4}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="E6" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2060,7 +2064,7 @@
         <v>121</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2074,7 +2078,7 @@
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>created_at VARCHAR ,</v>
+        <v>created_at TIMESTAMP ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2088,7 +2092,7 @@
         <v>122</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2102,7 +2106,7 @@
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">updated_at VARCHAR </v>
+        <v xml:space="preserve">updated_at TIMESTAMP </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2409,7 +2413,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2615,7 +2619,7 @@
         <v>121</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2629,7 +2633,7 @@
       </c>
       <c r="L13" t="str">
         <f t="shared" ref="L13:L27" si="0">C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>created_at VARCHAR ,</v>
+        <v>created_at TIMESTAMP ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2643,7 +2647,7 @@
         <v>122</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2657,7 +2661,7 @@
       </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">updated_at VARCHAR </v>
+        <v xml:space="preserve">updated_at TIMESTAMP </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2909,8 +2913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF29C76-6BB3-4D90-A736-9145D8676BFF}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3113,7 +3117,7 @@
         <v>121</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3127,7 +3131,7 @@
       </c>
       <c r="L13" t="str">
         <f t="shared" ref="L13:L27" si="0">C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>created_at VARCHAR ,</v>
+        <v>created_at TIMESTAMP ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -3141,7 +3145,7 @@
         <v>122</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3155,7 +3159,7 @@
       </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">updated_at VARCHAR </v>
+        <v xml:space="preserve">updated_at TIMESTAMP </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -3408,7 +3412,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3688,7 +3692,7 @@
         <v>121</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -3702,7 +3706,7 @@
       </c>
       <c r="L16" t="str">
         <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>created_at VARCHAR ,</v>
+        <v>created_at TIMESTAMP ,</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -3716,7 +3720,7 @@
         <v>122</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -3730,7 +3734,7 @@
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">updated_at VARCHAR </v>
+        <v xml:space="preserve">updated_at TIMESTAMP </v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -3983,7 +3987,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4161,7 +4165,7 @@
         <v>121</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -4175,7 +4179,7 @@
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>created_at VARCHAR ,</v>
+        <v>created_at TIMESTAMP ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -4189,7 +4193,7 @@
         <v>122</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -4203,7 +4207,7 @@
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">updated_at VARCHAR </v>
+        <v xml:space="preserve">updated_at TIMESTAMP </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -4509,8 +4513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DF9C2C-B88D-4FCA-9ADF-34D6A5CA0077}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4712,7 +4716,7 @@
         <v>121</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -4726,7 +4730,7 @@
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>created_at VARCHAR ,</v>
+        <v>created_at TIMESTAMP ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -4740,7 +4744,7 @@
         <v>122</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -4754,7 +4758,7 @@
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">updated_at VARCHAR </v>
+        <v xml:space="preserve">updated_at TIMESTAMP </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -5042,8 +5046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9F0786-ED48-4704-8504-D1D60F4D850A}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5371,7 +5375,7 @@
         <v>65</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -5385,7 +5389,7 @@
       </c>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v>created_at VARCHAR ,</v>
+        <v>created_at TIMESTAMP ,</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -5399,7 +5403,7 @@
         <v>66</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -5413,7 +5417,7 @@
       </c>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">updated_at VARCHAR </v>
+        <v xml:space="preserve">updated_at TIMESTAMP </v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -5594,7 +5598,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5812,7 +5816,7 @@
         <v>121</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -5826,7 +5830,7 @@
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>created_at VARCHAR ,</v>
+        <v>created_at TIMESTAMP ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -5840,7 +5844,7 @@
         <v>66</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -5854,7 +5858,7 @@
       </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">updated_at VARCHAR </v>
+        <v xml:space="preserve">updated_at TIMESTAMP </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -6125,7 +6129,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6425,7 +6429,7 @@
         <v>65</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -6439,7 +6443,7 @@
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>created_at VARCHAR ,</v>
+        <v>created_at TIMESTAMP ,</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -6453,7 +6457,7 @@
         <v>66</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -6467,7 +6471,7 @@
       </c>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">updated_at VARCHAR </v>
+        <v xml:space="preserve">updated_at TIMESTAMP </v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -6702,7 +6706,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -7040,7 +7044,7 @@
         <v>121</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -7054,7 +7058,7 @@
       </c>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
-        <v>created_at VARCHAR ,</v>
+        <v>created_at TIMESTAMP ,</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -7068,7 +7072,7 @@
         <v>122</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -7082,7 +7086,7 @@
       </c>
       <c r="L20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">updated_at VARCHAR </v>
+        <v xml:space="preserve">updated_at TIMESTAMP </v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -7263,7 +7267,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -7461,7 +7465,7 @@
         <v>121</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -7475,7 +7479,7 @@
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>created_at VARCHAR ,</v>
+        <v>created_at TIMESTAMP ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -7489,7 +7493,7 @@
         <v>122</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -7503,7 +7507,7 @@
       </c>
       <c r="L14" t="str">
         <f t="shared" ref="L14:L28" si="0">C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">updated_at VARCHAR </v>
+        <v xml:space="preserve">updated_at TIMESTAMP </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">

--- a/doc/02_外部設計/02_DB定義書_A4.xlsx
+++ b/doc/02_外部設計/02_DB定義書_A4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A4\doc\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A54D52-B94A-4EEE-B2B0-88E32C14D20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89592878-A517-45D8-95AA-1E2D8CD265FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="16596" windowHeight="12336" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -2913,7 +2913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF29C76-6BB3-4D90-A736-9145D8676BFF}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -6705,8 +6705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4C4C6F-6D8F-4D76-BF64-62F0CB8070D0}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
